--- a/Kode/Server2/Logs/LTE-node1/2020-05-19.xlsx
+++ b/Kode/Server2/Logs/LTE-node1/2020-05-19.xlsx
@@ -403,7 +403,7 @@
         <v>0.585</v>
       </c>
       <c r="F2" t="n">
-        <v>1.35954</v>
+        <v>1359.54</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>0.6</v>
       </c>
       <c r="F3" t="n">
-        <v>1.3656</v>
+        <v>1365.6</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>0.6</v>
       </c>
       <c r="F4" t="n">
-        <v>1.3728</v>
+        <v>1372.8</v>
       </c>
     </row>
     <row r="5">
@@ -463,7 +463,7 @@
         <v>0.6</v>
       </c>
       <c r="F5" t="n">
-        <v>1.3944</v>
+        <v>1394.4</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>0.615</v>
       </c>
       <c r="F6" t="n">
-        <v>1.40466</v>
+        <v>1404.66</v>
       </c>
     </row>
   </sheetData>
